--- a/Material Database.xlsx
+++ b/Material Database.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\GitHub\PHPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F88D9174-8435-4D59-ADC0-59284F277785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40422A1B-287A-4F9B-9137-403DFB4201A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8B72D96C-E835-4E6C-85A9-680D0CEA1045}"/>
+    <workbookView minimized="1" xWindow="7200" yWindow="6150" windowWidth="14940" windowHeight="7740" activeTab="1" xr2:uid="{8B72D96C-E835-4E6C-85A9-680D0CEA1045}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Materials" sheetId="1" r:id="rId1"/>
+    <sheet name="Inputs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -464,12 +465,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD98F7B-0D99-43C0-AD66-FCCE97E0ADD8}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
@@ -734,4 +736,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6A4828-4FE8-4409-A78E-CBF87BB23062}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Material Database.xlsx
+++ b/Material Database.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\GitHub\PHPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40422A1B-287A-4F9B-9137-403DFB4201A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE672F77-6E40-45EE-9D01-614FB03D8773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7200" yWindow="6150" windowWidth="14940" windowHeight="7740" activeTab="1" xr2:uid="{8B72D96C-E835-4E6C-85A9-680D0CEA1045}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8B72D96C-E835-4E6C-85A9-680D0CEA1045}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
-    <sheet name="Inputs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,9 +83,6 @@
     <t>Rockwool (0.14)</t>
   </si>
   <si>
-    <t>Oak Timber</t>
-  </si>
-  <si>
     <t>Cotswold Stone</t>
   </si>
   <si>
@@ -96,7 +92,10 @@
     <t>Celotex PL4000</t>
   </si>
   <si>
-    <t>Rockwool Loft Roll</t>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Tiles</t>
   </si>
 </sst>
 </file>
@@ -455,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD98F7B-0D99-43C0-AD66-FCCE97E0ADD8}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,21 +664,33 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B9" s="2">
+        <v>360</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1720</v>
+      </c>
       <c r="D9" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -693,7 +704,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -707,7 +718,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -733,19 +744,12 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D14" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6A4828-4FE8-4409-A78E-CBF87BB23062}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>